--- a/Suivi_projet_DWWM_Strasbourg (1).xlsx
+++ b/Suivi_projet_DWWM_Strasbourg (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stagiaire\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\georgesunderscore\Partie1-2-php\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6378F859-E195-424D-8193-9A39233FAD8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9D8665-AF0F-483E-AF18-3BA28272CB9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="6765" xr2:uid="{CF539EC5-3BDF-4CE5-B05E-309A2D75A2C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{CF539EC5-3BDF-4CE5-B05E-309A2D75A2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Suivi_projets" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Développeur web et web mobile</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Georges Kayal</t>
+  </si>
+  <si>
+    <t>flexcard</t>
+  </si>
+  <si>
+    <t>https://github.com/Georgesunderscore/flexCard.git</t>
   </si>
 </sst>
 </file>
@@ -388,6 +394,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -407,9 +416,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC609783-CA00-46CE-A2CA-EBC4F05B373D}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,54 +762,54 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="27" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="25" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -873,7 +879,7 @@
       <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -950,96 +956,118 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>44970</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="8">
+        <v>44960</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="5">
+        <v>44970</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="21"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="20"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="21"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="20"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="21"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1062,12 +1090,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="e0126794-098a-4121-936a-035bd9667ffd">
+      <UserInfo>
+        <DisplayName>STRASBOURG - PL NUMERIQUE 2 - Membres</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1248,23 +1281,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="e0126794-098a-4121-936a-035bd9667ffd">
-      <UserInfo>
-        <DisplayName>STRASBOURG - PL NUMERIQUE 2 - Membres</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCA0645-C7C8-45AF-BCEB-1C819822C179}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F7BDE4-78B8-4CC7-9C10-44FA8104EE3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e0126794-098a-4121-936a-035bd9667ffd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1289,11 +1319,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F7BDE4-78B8-4CC7-9C10-44FA8104EE3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCA0645-C7C8-45AF-BCEB-1C819822C179}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e0126794-098a-4121-936a-035bd9667ffd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>